--- a/Documentatie/logboek-sprint1.xlsx
+++ b/Documentatie/logboek-sprint1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Datum</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>Logboek sprint 1</t>
+  </si>
+  <si>
+    <t>Tijd</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Logboek gemaakt</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Burndown Chart gemaakt</t>
   </si>
 </sst>
 </file>
@@ -66,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -116,23 +131,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -440,112 +530,146 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="3"/>
+    <col min="2" max="2" width="23.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="8"/>
+      <c r="B4" s="10">
+        <v>41964</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H5" s="8"/>
+      <c r="B5" s="15">
+        <v>41964</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H6" s="8"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H7" s="8"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H8" s="8"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H9" s="8"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H10" s="8"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H11" s="8"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H12" s="8"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H13" s="8"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H14" s="8"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H15" s="8"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H16" s="8"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="8"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="8"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="8"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="H20" s="8"/>
+      <c r="A20" s="1"/>
+      <c r="H20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentatie/logboek-sprint1.xlsx
+++ b/Documentatie/logboek-sprint1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Datum</t>
   </si>
@@ -47,6 +47,45 @@
   </si>
   <si>
     <t>Burndown Chart gemaakt</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Animatie van het logo</t>
+  </si>
+  <si>
+    <t>Robert, Jesse</t>
+  </si>
+  <si>
+    <t>Schetsen op papier van de game</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>Jordy</t>
+  </si>
+  <si>
+    <t>Use case diagrammen</t>
+  </si>
+  <si>
+    <t>Quincy</t>
+  </si>
+  <si>
+    <t>Wireframes</t>
+  </si>
+  <si>
+    <t>Dean</t>
+  </si>
+  <si>
+    <t>HTML en CSS van de homepage</t>
+  </si>
+  <si>
+    <t>Slawek</t>
+  </si>
+  <si>
+    <t>verzinnen van de slagzin en de header</t>
   </si>
 </sst>
 </file>
@@ -530,7 +569,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +577,7 @@
     <col min="2" max="2" width="23.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" style="17" bestFit="1" customWidth="1"/>
   </cols>
@@ -626,21 +665,129 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="15">
+        <v>41964</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1001</v>
+      </c>
+      <c r="G6" s="17">
+        <v>13</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="15">
+        <v>41964</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1028</v>
+      </c>
+      <c r="G7" s="17">
+        <v>40</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="15">
+        <v>41964</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1010</v>
+      </c>
+      <c r="G8" s="17">
+        <v>13</v>
+      </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="15">
+        <v>41964</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1006</v>
+      </c>
+      <c r="G9" s="17">
+        <v>20</v>
+      </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="15">
+        <v>41964</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1004</v>
+      </c>
+      <c r="G10" s="17">
+        <v>20</v>
+      </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="15">
+        <v>41964</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1003</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0.5</v>
+      </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">

--- a/Documentatie/logboek-sprint1.xlsx
+++ b/Documentatie/logboek-sprint1.xlsx
@@ -70,9 +70,6 @@
     <t>Use case diagrammen</t>
   </si>
   <si>
-    <t>Quincy</t>
-  </si>
-  <si>
     <t>Wireframes</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>verzinnen van de slagzin en de header</t>
+  </si>
+  <si>
+    <t>Quincy, Bas</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,10 +735,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F9" s="16">
         <v>1006</v>
@@ -756,10 +756,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F10" s="16">
         <v>1004</v>
@@ -777,10 +777,10 @@
         <v>15</v>
       </c>
       <c r="D11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F11" s="16">
         <v>1003</v>
